--- a/biology/Biologie cellulaire et moléculaire/Indice_de_distribution_des_globules_rouges/Indice_de_distribution_des_globules_rouges.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Indice_de_distribution_des_globules_rouges/Indice_de_distribution_des_globules_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice de distribution des globules rouges (IDR) correspond à un calcul fait par les automates lors d'un hémogramme, concernant la variabilité de la taille des globules rouges. La plage normale de la largeur de distribution des globules rouges (IDR) est de 11 à 15. Une valeur plus élevée indique une plus grande variation de la taille des hématies que la normale (anisocytose) et se voit dans de nombreux types d’anémies[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice de distribution des globules rouges (IDR) correspond à un calcul fait par les automates lors d'un hémogramme, concernant la variabilité de la taille des globules rouges. La plage normale de la largeur de distribution des globules rouges (IDR) est de 11 à 15. Une valeur plus élevée indique une plus grande variation de la taille des hématies que la normale (anisocytose) et se voit dans de nombreux types d’anémies.
 </t>
         </is>
       </c>
